--- a/medidascluster2.xlsx
+++ b/medidascluster2.xlsx
@@ -89,58 +89,58 @@
     <t>VL_OBSERVADO_2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Min.   :0.2580  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st Qu.:0.4910  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median :0.5490  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean   :0.5474  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Qu.:0.6020  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max.   :0.8200  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min.   :0.0000  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st Qu.:0.3960  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median :0.5000  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean   :0.4967  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Qu.:0.6060  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max.   :0.9550  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min.   :0.00000  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st Qu.:0.05000  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median :0.05625  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean   :0.05748  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Qu.:0.06563  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max.   :0.10156  </t>
+    <t xml:space="preserve">Min.   :0.1230  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Qu.:0.2560  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median :0.3110  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean   :0.3238  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Qu.:0.3770  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max.   :0.6980  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min.   :0.1240  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Qu.:0.5000  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median :0.5830  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean   :0.5628  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Qu.:0.6432  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max.   :0.8600  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min.   :3.300  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Qu.:4.400  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median :4.600  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean   :4.631  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Qu.:4.900  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max.   :6.500  </t>
   </si>
 </sst>
 </file>
